--- a/biology/Médecine/Hôpital_psychiatrique_São_Pedro/Hôpital_psychiatrique_São_Pedro.xlsx
+++ b/biology/Médecine/Hôpital_psychiatrique_São_Pedro/Hôpital_psychiatrique_São_Pedro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_psychiatrique_S%C3%A3o_Pedro</t>
+          <t>Hôpital_psychiatrique_São_Pedro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital psychiatrique São Pedro fut le premier hôpital psychiatrique de Porto Alegre et de la Province de São Pedro (actuel État du Rio Grande do Sul). La construction, due aux encouragements philanthropiques des dirigeants de la Santa Casa de Misericórdia de Porto Alegre, en commença fin 1879, sur un terrain de 33 ha acheté en novembre de la même année par le gouvernement de la Province, le long de l'actuelle avenue Bento Gonçalves, dans le quartier de Partenon. Sa première partie fut inaugurée le 29 juin 1884 et l'ensemble achevé en 1903.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_psychiatrique_S%C3%A3o_Pedro</t>
+          <t>Hôpital_psychiatrique_São_Pedro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(pt) 120 anos do Hospital Psiquiátrico São Pedro: um pouco de sua história.
  Portail des soins infirmiers   Portail du Rio Grande do Sul   Portail de la médecine   Portail du bâtiment et des travaux publics   Portail de la folie                 </t>
